--- a/PANAMÁ/Género/Adolescencia y género Unicef 2019 Panamá.xlsx
+++ b/PANAMÁ/Género/Adolescencia y género Unicef 2019 Panamá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5A0BD-B284-4000-ABFC-0D5108D2ACBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF14344-C21E-4F8F-8ACC-4DF89072F3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{222FA9FE-7A53-4210-97E2-1145487384CF}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t xml:space="preserve">Violencia de pareja 2010−2018*, mujeres
 </t>
@@ -495,21 +495,12 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t>Violencia de pareja 2010−2018*</t>
-  </si>
-  <si>
-    <t>Bullying 2010−2017*</t>
-  </si>
-  <si>
     <t>Mujeres</t>
   </si>
   <si>
     <t>Hombres</t>
   </si>
   <si>
-    <t>Educación y aprendizaje 2010–2017*</t>
-  </si>
-  <si>
     <t>SubCatgoría</t>
   </si>
   <si>
@@ -519,9 +510,6 @@
     <t>Competencia en lectura</t>
   </si>
   <si>
-    <t>Transición al trabajo 2010−2018*</t>
-  </si>
-  <si>
     <t>No estudia, no trabaja y no recibe formación</t>
   </si>
   <si>
@@ -529,6 +517,30 @@
   </si>
   <si>
     <t>Participación en las tareas del hogar</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2010−2018*</t>
+  </si>
+  <si>
+    <t>2010−2017*</t>
+  </si>
+  <si>
+    <t>2010−2018*</t>
+  </si>
+  <si>
+    <t>Violencia de pareja</t>
+  </si>
+  <si>
+    <t>Bullying</t>
+  </si>
+  <si>
+    <t>Educación y aprendizaje</t>
+  </si>
+  <si>
+    <t>Transición al trabajo</t>
   </si>
 </sst>
 </file>
@@ -678,12 +690,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99CC6AC8-EF64-4447-BDC1-58A2FCF99F32}" name="Tabla1" displayName="Tabla1" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14" xr:uid="{6AAB7588-C72C-4942-9D66-4F14D5B2C5EB}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{99CC6AC8-EF64-4447-BDC1-58A2FCF99F32}" name="Tabla1" displayName="Tabla1" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{6AAB7588-C72C-4942-9D66-4F14D5B2C5EB}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EA7C49EF-F658-4A51-83D9-A784EA19AB77}" name="Categoría"/>
     <tableColumn id="2" xr3:uid="{F981BDE4-354A-473A-AD3C-4009AA42CA2D}" name="SubCatgoría"/>
     <tableColumn id="3" xr3:uid="{FC0E89A1-5413-4735-84F3-A66A5144184C}" name="Variable"/>
+    <tableColumn id="5" xr3:uid="{3CAF84AC-8161-4A3B-87B4-FFCB2B397B3B}" name="Fecha"/>
     <tableColumn id="4" xr3:uid="{12127444-FC63-47C1-81C6-270DA6EBB21F}" name="Cantidad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1084,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60684-0ABE-4E30-B62C-DEA459D4274B}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,176 +1109,218 @@
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1280,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622394A9-74FE-4F44-80DC-A7B68C6A00DC}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PANAMÁ/Género/Adolescencia y género Unicef 2019 Panamá.xlsx
+++ b/PANAMÁ/Género/Adolescencia y género Unicef 2019 Panamá.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF14344-C21E-4F8F-8ACC-4DF89072F3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E28AAA7-2A41-463A-93FE-822728495B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{222FA9FE-7A53-4210-97E2-1145487384CF}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{222FA9FE-7A53-4210-97E2-1145487384CF}"/>
   </bookViews>
   <sheets>
     <sheet name="(Original) ado y gen" sheetId="1" r:id="rId1"/>
     <sheet name="ado y gen" sheetId="3" r:id="rId2"/>
     <sheet name="Definiciones" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Definiciones!$A$1:$D$65</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t xml:space="preserve">Violencia de pareja 2010−2018*, mujeres
 </t>
@@ -489,9 +492,6 @@
     <t>Categoría</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
@@ -501,9 +501,6 @@
     <t>Hombres</t>
   </si>
   <si>
-    <t>SubCatgoría</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Competencia en matemáticas</t>
   </si>
   <si>
@@ -522,9 +519,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2010−2018*</t>
-  </si>
-  <si>
     <t>2010−2017*</t>
   </si>
   <si>
@@ -541,6 +535,93 @@
   </si>
   <si>
     <t>Transición al trabajo</t>
+  </si>
+  <si>
+    <t>SubCategoría</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>– Datos no disponibles</t>
+  </si>
+  <si>
+    <t>p Basado en denominadores pequeños (típicamente 25-49 casos no ponderados). Ningún dato basado en menos de 25 casos no ponderados es mostrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x Datos refieren a años o períodos distintos a los que se especifican en el título de las columnas. Esos datos no son incluidos en los cálculos de promedios regionales o globales. Datos de años anteriores al 2000 no son mostrados. </t>
+  </si>
+  <si>
+    <t>y Datos difieren de la definición estándar o refieren a una parte de un país. Si caen dentro del período de tiempo indicado, entonces esos datos son incluidos en el cálculo de promedios regionales y globales</t>
+  </si>
+  <si>
+    <t>* Datos refieren al año disponible más reciente durante el período especificado en el título de las columnas</t>
+  </si>
+  <si>
+    <t>Principales fuentes de datos:</t>
+  </si>
+  <si>
+    <t>Para una lista completa de países y áreas en las regiones, subregiones y categorías por país, ver página 182 o visitar &lt;data.unicef.org/regionalclassifications&gt;.</t>
+  </si>
+  <si>
+    <t>No es recomendable comparar la data de ediciones consecutivas del "Estado Mundial de la Infancia"</t>
+  </si>
+  <si>
+    <t>Definiciones de los indicadores</t>
+  </si>
+  <si>
+    <t>Violencia de pareja: porcentaje de niñas de 15-19 años que alguna vez tuvieron pareja que han experimentado violencia física y/o sexual por una pareja actual o anterior durante los últimos doce meses</t>
+  </si>
+  <si>
+    <t>Bullying: porcentaje de estudiantes de 13-15 años que han reportado haber recibido bullying en uno o más días en los últimos 30 días</t>
+  </si>
+  <si>
+    <t>Competencia en matemáticas: porcentaje de niños y jóvenes que están terminando la secundaria básica y que alcanzan al menos un nivel mínimo de competencia en matemáticas</t>
+  </si>
+  <si>
+    <t>Competencia en lectura: porcentaje de niños y jóvenes que están terminando la secundaria básica y que alcanzan al menos un nivel mínimo de competencia en lectura</t>
+  </si>
+  <si>
+    <t>No estudia, no trabaja y no recibe formación: porcentaje de adolescentes de 15-19 años que no estudia, no trabaja y no recibe formación</t>
+  </si>
+  <si>
+    <t>Desempleo: porcentaje de adolescentes de 15-19 años en la fuerza laboral que están desempleados</t>
+  </si>
+  <si>
+    <t>Participación en las tareas del hogar: porcentaje de adolescentes de 10-14 años que, durante la semana de referencia, ocuparon a lo menos 21 horas de su tiempo en realizar tareas del hogar sin recibir un pago</t>
+  </si>
+  <si>
+    <t>Población Adolescente: United Nations Population Division. Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Uso de Alcohol: WHO estimates based on international surveys (WHS, STEPS, GENACIS, and ECAS) as well as national surveys. Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Uso de Tabaco: School-based surveys, other national surveys and censuses. Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Violencia de Pareja: DHS, MICS and other national surveys. Last update: March 2019.</t>
+  </si>
+  <si>
+    <t>Delgadez o Sobrepeso: NCD Risk Factor Collaboration (NCD−RisC), based on Worldwide trends in body mass index, underweight, overweight and obesity from 1975 to 2016: a pooled analysis of 2416 population-based measurement studies in 128.9million children, adolescents, and adults. The Lancet 2017, 390 (10113): 2627–2642. Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Bullying: Health Behaviour in School-aged Children Study (HBSC) and Global School-based Student Health Surveys (GSHS). Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Competencia en Matemáticas y Lectura: United Nations Statistics Division. Last update: April 2019.</t>
+  </si>
+  <si>
+    <t>No Estudia, No trabaja y No Recibe Formación: International Labour Organization. Last update: February 2019.</t>
+  </si>
+  <si>
+    <t>Desempleo: International Labour Organization. Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Participación en Tareas del Hogar: DHS, MICS and other national surveys. Last update: March 2019.</t>
   </si>
 </sst>
 </file>
@@ -550,7 +631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +676,14 @@
       <sz val="12"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -664,9 +753,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2 2" xfId="2" xr:uid="{86D74DBA-C391-4338-8B2E-CB41DCFAF077}"/>
@@ -694,8 +781,8 @@
   <autoFilter ref="A1:E14" xr:uid="{6AAB7588-C72C-4942-9D66-4F14D5B2C5EB}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EA7C49EF-F658-4A51-83D9-A784EA19AB77}" name="Categoría"/>
-    <tableColumn id="2" xr3:uid="{F981BDE4-354A-473A-AD3C-4009AA42CA2D}" name="SubCatgoría"/>
-    <tableColumn id="3" xr3:uid="{FC0E89A1-5413-4735-84F3-A66A5144184C}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{F981BDE4-354A-473A-AD3C-4009AA42CA2D}" name="SubCategoría"/>
+    <tableColumn id="3" xr3:uid="{FC0E89A1-5413-4735-84F3-A66A5144184C}" name="Sexo"/>
     <tableColumn id="5" xr3:uid="{3CAF84AC-8161-4A3B-87B4-FFCB2B397B3B}" name="Fecha"/>
     <tableColumn id="4" xr3:uid="{12127444-FC63-47C1-81C6-270DA6EBB21F}" name="Cantidad"/>
   </tableColumns>
@@ -1099,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60684-0ABE-4E30-B62C-DEA459D4274B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,63 +1201,64 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>21</v>
@@ -1178,16 +1266,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>22</v>
@@ -1195,16 +1283,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>28</v>
@@ -1212,16 +1300,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>41</v>
@@ -1229,16 +1317,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1246,16 +1334,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -1263,16 +1351,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1280,16 +1368,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -1297,30 +1385,30 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1333,181 +1421,262 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622394A9-74FE-4F44-80DC-A7B68C6A00DC}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I4" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I11" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I24" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
